--- a/EnhancementList.xlsx
+++ b/EnhancementList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>E04</t>
-  </si>
-  <si>
-    <t>Improve Responsiveness to Clicking</t>
   </si>
   <si>
     <t>Priority 
@@ -67,9 +64,6 @@
   </si>
   <si>
     <t>Unlimited Discard Pile Cycling</t>
-  </si>
-  <si>
-    <t>E05</t>
   </si>
   <si>
     <t>Check All Cards on Field</t>
@@ -402,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +419,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -442,7 +436,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -478,17 +472,6 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
         <v>3</v>
       </c>
     </row>
